--- a/1_exel/scores.xlsx
+++ b/1_exel/scores.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="525" windowWidth="13695" windowHeight="11025" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,12 +16,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +419,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -457,6 +463,16 @@
           <t>프로젝트</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>총점</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>성적</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>14</v>
@@ -479,6 +495,14 @@
       </c>
       <c r="G2" t="n">
         <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -492,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -502,6 +526,14 @@
       </c>
       <c r="G3" t="n">
         <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>77</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -515,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -525,6 +557,14 @@
       </c>
       <c r="G4" t="n">
         <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>48</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -538,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
@@ -548,6 +588,14 @@
       </c>
       <c r="G5" t="n">
         <v>18</v>
+      </c>
+      <c r="H5" t="n">
+        <v>81</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -561,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>16</v>
@@ -571,6 +619,14 @@
       </c>
       <c r="G6" t="n">
         <v>15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>81</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -584,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -594,6 +650,14 @@
       </c>
       <c r="G7" t="n">
         <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -618,6 +682,14 @@
       <c r="G8" t="n">
         <v>18</v>
       </c>
+      <c r="H8" t="n">
+        <v>84</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -630,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -640,6 +712,14 @@
       </c>
       <c r="G9" t="n">
         <v>17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>73</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -653,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -664,6 +744,14 @@
       <c r="G10" t="n">
         <v>19</v>
       </c>
+      <c r="H10" t="n">
+        <v>98</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -676,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -687,8 +775,17 @@
       <c r="G11" t="n">
         <v>20</v>
       </c>
+      <c r="H11" t="n">
+        <v>92</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/1_exel/scores.xlsx
+++ b/1_exel/scores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="525" windowWidth="13695" windowHeight="11025" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="540" windowWidth="13695" windowHeight="10125" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -786,6 +786,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>